--- a/Relatorio placas negativas.xlsx
+++ b/Relatorio placas negativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckely\Desktop\Inventario\UGBplacas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF625D1-EB56-4388-8E3A-F31A97B5B0BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98AE62-5DA5-4160-8D22-8EA9D0A3D1B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="630" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,9 @@
       <c r="B2" s="3">
         <v>40</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -633,7 +635,9 @@
       <c r="B3" s="3">
         <v>40</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>80</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>

--- a/Relatorio placas negativas.xlsx
+++ b/Relatorio placas negativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckely\Desktop\Inventario\UGBplacas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98AE62-5DA5-4160-8D22-8EA9D0A3D1B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE7ED5-52E3-4A0E-AACF-A4DBDC684DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="630" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,12 +607,8 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3">
-        <v>60</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -632,12 +628,8 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="3">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3">
-        <v>80</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>

--- a/Relatorio placas negativas.xlsx
+++ b/Relatorio placas negativas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckely\Desktop\Inventario\UGBplacas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE7ED5-52E3-4A0E-AACF-A4DBDC684DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3209394-8EDB-4F3F-8B42-CED4DE1D53A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="630" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,14 +237,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +620,14 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>1120</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3">
+        <v>885</v>
+      </c>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -641,10 +645,14 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>877</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3">
+        <v>1500</v>
+      </c>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -662,10 +670,14 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>73</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3">
+        <v>1540</v>
+      </c>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -683,10 +695,14 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>148</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3">
+        <v>304</v>
+      </c>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -704,7 +720,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>906</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -725,7 +743,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>1120</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -746,7 +766,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>1250</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -767,7 +789,9 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>1120</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
